--- a/Modelo de dominio enriquecido/Pago-Modelo de dominio enriquecido.xlsx
+++ b/Modelo de dominio enriquecido/Pago-Modelo de dominio enriquecido.xlsx
@@ -5,23 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTEBAN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isabe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85840DE1-13A6-4E99-A485-60E31C7ED093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8714FD-9121-4476-A11F-1067C049F1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
     <sheet name="Listado Objetos de Dominio" sheetId="67" r:id="rId2"/>
-    <sheet name="Tienda" sheetId="74" r:id="rId3"/>
+    <sheet name="Sede" sheetId="74" r:id="rId3"/>
     <sheet name="Pedido" sheetId="70" r:id="rId4"/>
     <sheet name="Pago" sheetId="72" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$1:$B$1</definedName>
   </definedNames>
@@ -46,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="127">
   <si>
     <t>Descripción</t>
   </si>
@@ -201,9 +198,6 @@
     <t>Monto</t>
   </si>
   <si>
-    <t>Promoción</t>
-  </si>
-  <si>
     <t>Fecha pedido</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>atributo que contiene un identificador que hace unica a cada Pedido</t>
   </si>
   <si>
-    <t>atributo que contiene la promocion que corresponde al pedido</t>
-  </si>
-  <si>
     <t>atributo que contiene la fecha en la cual se realiza el pedido</t>
   </si>
   <si>
@@ -231,12 +222,6 @@
     <t>atributo que contiene precio final el cual le da el valor al pedido con su descuento</t>
   </si>
   <si>
-    <t>promocion y fecha de pedido unica</t>
-  </si>
-  <si>
-    <t>No es posible tener una promocion y una fecha con hora dos veces a la vez</t>
-  </si>
-  <si>
     <t>solo  números</t>
   </si>
   <si>
@@ -282,99 +267,12 @@
     <t>si se envian parametros de consulta deben ser validos a nivel tipo de dato, longitud, obligatoriedad, fromato, rango</t>
   </si>
   <si>
-    <t>Se debe indicar que los datos de consulta ingresados no son validos</t>
-  </si>
-  <si>
     <t>si se envian parametros de consulta deben ser validos a nivel tipo de dato, longitud, obligatoriedad, formato, rango</t>
   </si>
   <si>
     <t>Se debe indicar que los datos de consulta no son validos</t>
   </si>
   <si>
-    <t>Crear pedido</t>
-  </si>
-  <si>
-    <t>Consultar pedido</t>
-  </si>
-  <si>
-    <t>modificar  pedido</t>
-  </si>
-  <si>
-    <t>Accion la cual es la encargada de poner en servicio el pedido</t>
-  </si>
-  <si>
-    <t>Accion la cual es la encargada de  consultar  el pedido que se requiere</t>
-  </si>
-  <si>
-    <t>Accion la cual es la encargada de modificar el  pedido y actualizarlo según cada necesidad</t>
-  </si>
-  <si>
-    <t>Accion la cual es la encargada de sacar de servicio un pedido</t>
-  </si>
-  <si>
-    <t>pedido</t>
-  </si>
-  <si>
-    <t>Contiene la informacion de un pedido que se quiere crear</t>
-  </si>
-  <si>
-    <t>Contiene la informacion de un pedido que se quiere consultar</t>
-  </si>
-  <si>
-    <t>Contiene la informacion de un pedido que se quiere modificar</t>
-  </si>
-  <si>
-    <t>no puede existir mas de un pedido con la misma fecha y promocion</t>
-  </si>
-  <si>
-    <t>debe existir el pedido que se este modificando</t>
-  </si>
-  <si>
-    <t>El pedido que se este cancelando debe ser el mismo que se este creando</t>
-  </si>
-  <si>
-    <t>cancelar  pedido</t>
-  </si>
-  <si>
-    <t>Contiene la informacion de un pedido que se quiere cancelar</t>
-  </si>
-  <si>
-    <t>Pol-pedido-001</t>
-  </si>
-  <si>
-    <t>Pol-pedido-003</t>
-  </si>
-  <si>
-    <t>Pol-pedido-002</t>
-  </si>
-  <si>
-    <t>Pol-pedido-004</t>
-  </si>
-  <si>
-    <t>Pol-pedido-005</t>
-  </si>
-  <si>
-    <t>Se debe indicar que ya existe un pedido con la misma fecha y promocion</t>
-  </si>
-  <si>
-    <t>Se debe indicar que el pedido que esta consultando no existe</t>
-  </si>
-  <si>
-    <t>Se debe indicar que el pedido que esta elimiando no existe</t>
-  </si>
-  <si>
-    <t>Cancelar creacion de pedido</t>
-  </si>
-  <si>
-    <t>Cancelar consulta de pedido</t>
-  </si>
-  <si>
-    <t>Cancelar modificacion de pedido</t>
-  </si>
-  <si>
-    <t>Cancelar cancelacion del pedido</t>
-  </si>
-  <si>
     <t>Crear pago</t>
   </si>
   <si>
@@ -429,39 +327,15 @@
     <t>Se debe indicar que el pago que esta modificando no existe</t>
   </si>
   <si>
-    <t>Cancelar creacion del pago</t>
-  </si>
-  <si>
-    <t>Cancelar consulta del pago</t>
-  </si>
-  <si>
-    <t>Cancelar eliminacion del pago</t>
-  </si>
-  <si>
-    <t>Tienda</t>
-  </si>
-  <si>
-    <t>Objeto dominio que representa la tienda física o virtual donde se pueden realizar las compras.</t>
-  </si>
-  <si>
     <t>Ubicación</t>
   </si>
   <si>
     <t>Atributo que contiene un identificador que hace unica a cada tienda</t>
   </si>
   <si>
-    <t>Nombre Tienda</t>
-  </si>
-  <si>
     <t>Atributo que contiene el nombre que identifica a una tienda</t>
   </si>
   <si>
-    <t>sede</t>
-  </si>
-  <si>
-    <t>Atributo que contiene la sede a la cual pertenece una tienda</t>
-  </si>
-  <si>
     <t>Ciudad</t>
   </si>
   <si>
@@ -492,89 +366,71 @@
     <t xml:space="preserve">No es posible tener mas de una tienda con el mismo nombre </t>
   </si>
   <si>
-    <t>Crear Tienda</t>
-  </si>
-  <si>
-    <t>Acccion la cual se encarga de poner en servicio una tienda para vender productos para el servicio al cliente.</t>
-  </si>
-  <si>
-    <t>Contiene la informacion de la tienda que se quiere crear.</t>
-  </si>
-  <si>
-    <t>Pol-Tienda-001</t>
-  </si>
-  <si>
-    <t>No se puede crear una nueva tienda sin darle una ubicación precisa.</t>
-  </si>
-  <si>
-    <t>Se debe indicar que la nueva ubicación existe en otra tienda y darle toda la informacion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se cancela la creacion de tienda </t>
-  </si>
-  <si>
-    <t>Pol-Tienda-002</t>
-  </si>
-  <si>
-    <t>No se puede crear una nueva tienda sin darle un nombre a la tienda y a la sede, tiene que cumplir que ninguno de estos nombres se repita.</t>
-  </si>
-  <si>
-    <t>Se debe indicar que existe otra tienda con el mismo nombre.</t>
-  </si>
-  <si>
-    <t>Modificar Tienda</t>
-  </si>
-  <si>
-    <t>Accion la cual se encarga de modificar la tienda y lo que contendra.</t>
-  </si>
-  <si>
-    <t>Contiene la informacion de la tienda que se quiere modificar.</t>
-  </si>
-  <si>
-    <t>Los datos del vendedor de la tienda se podran modificar teniendo en cuenta que no se puede repetir un mismo vendedor en diferentes tiendas.</t>
-  </si>
-  <si>
-    <t>Se debe indicar con los datos del vendedor que estan en otra tienda distinta a la asignada.</t>
-  </si>
-  <si>
-    <t>Se cancela la modificacion de la tienda</t>
-  </si>
-  <si>
-    <t>El nombre de la tienda y sede solo se podran modificar teniendo en cuenta el parametro de que no se puede repetir.</t>
-  </si>
-  <si>
-    <t>Consultar Tienda</t>
-  </si>
-  <si>
     <t>Accion la cual se encarga de consultar lo que contiene la tienda.</t>
   </si>
   <si>
-    <t>Contiene la informacion de la tienda que se quiere consultar.</t>
-  </si>
-  <si>
-    <t>Se cancela consultar tienda</t>
-  </si>
-  <si>
-    <t>Eliminar Tienda</t>
-  </si>
-  <si>
-    <t>Accion la cual se encarga de cerrar una tienda al publico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debe existir la tienda que se esta eliminando </t>
-  </si>
-  <si>
-    <t>Se debe indicar que la tienda que se quiere eliminar no existe.</t>
-  </si>
-  <si>
-    <t>Se cancela eliminar tienda</t>
+    <t>Cancelar crear pago</t>
+  </si>
+  <si>
+    <t>Cancelar consultar pago</t>
+  </si>
+  <si>
+    <t>Cancelar modificar pago</t>
+  </si>
+  <si>
+    <t>Consultar Pedido</t>
+  </si>
+  <si>
+    <t>Accion la cual es la encargada consultar el pedido que se necesita</t>
+  </si>
+  <si>
+    <t>Fecha de pedido unica</t>
+  </si>
+  <si>
+    <t>No es posible tener una fecha con hora dos veces a la vez</t>
+  </si>
+  <si>
+    <t>Contiene la informacion del pedido que se quiere consultar</t>
+  </si>
+  <si>
+    <t>Pol-Pedido-003</t>
+  </si>
+  <si>
+    <t>Si se envian parametros de consulta deben ser validos a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
+  </si>
+  <si>
+    <t>se debe de indicar que los datos de consulta no son validos</t>
+  </si>
+  <si>
+    <t>Cancelar consultar pedido</t>
+  </si>
+  <si>
+    <t>Sede</t>
+  </si>
+  <si>
+    <t>Objeto dominio que representa una sucursal o local de la tienda</t>
+  </si>
+  <si>
+    <t>Nombre Sede</t>
+  </si>
+  <si>
+    <t>Cancelar consultar Sede</t>
+  </si>
+  <si>
+    <t>Consultar Sede</t>
+  </si>
+  <si>
+    <t>Pol-Sede-001</t>
+  </si>
+  <si>
+    <t>Contiene la informacion de la sede que se quiere consultar.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,8 +545,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,14 +630,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1236,24 +1107,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1266,7 +1135,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1377,9 +1246,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1406,9 +1272,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
@@ -1418,51 +1281,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1472,293 +1293,11 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1779,71 +1318,254 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1878,23 +1600,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>233083</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>26895</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>708212</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>169967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>115266</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>44382</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>111589</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>112254</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B7744EB-3122-3CB8-C284-CC7E94AE9ECB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401DD54B-15EA-FDF4-77AA-433BEFEFCDC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,8 +1632,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4177554" y="385483"/>
-          <a:ext cx="10926700" cy="4858428"/>
+          <a:off x="3074894" y="169967"/>
+          <a:ext cx="11236789" cy="4783228"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1921,37 +1643,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Modelo de dominio anémico"/>
-      <sheetName val="Listado Objetos de Dominio"/>
-      <sheetName val="Tienda"/>
-      <sheetName val="Cliente"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Tienda</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Objeto dominio que representa la tienda física o virtual donde se pueden realizar las compras.</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2254,7 +1945,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2276,9 +1967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2290,58 +1981,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="170" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="173" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="174" t="s">
-        <v>73</v>
+      <c r="B1" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="171" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="172" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="175" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="175" t="s">
-        <v>132</v>
+      <c r="A2" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="52" t="s">
+      <c r="C4" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2360,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48E3DDB-5212-4B2E-A16D-4BEBBBC618C6}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="76" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2391,70 +2082,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="81" t="str">
-        <f>'[1]Listado Objetos de Dominio'!$A$2</f>
-        <v>Tienda</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
+      <c r="B2" s="84" t="str">
+        <f>'Listado Objetos de Dominio'!A2</f>
+        <v>Sede</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="82" t="str">
-        <f>'[1]Listado Objetos de Dominio'!$B$2</f>
-        <v>Objeto dominio que representa la tienda física o virtual donde se pueden realizar las compras.</v>
-      </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
+      <c r="B3" s="85" t="str">
+        <f>'Listado Objetos de Dominio'!B2</f>
+        <v>Objeto dominio que representa una sucursal o local de la tienda</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -2507,19 +2198,19 @@
       </c>
       <c r="Q4" s="34" t="str">
         <f>A19</f>
-        <v>Crear Tienda</v>
-      </c>
-      <c r="R4" s="32" t="str">
+        <v>Consultar Sede</v>
+      </c>
+      <c r="R4" s="32">
         <f>A21</f>
-        <v>Modificar Tienda</v>
-      </c>
-      <c r="S4" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="S4" s="33">
         <f>A23</f>
-        <v>Consultar Tienda</v>
-      </c>
-      <c r="T4" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
         <f>A24</f>
-        <v>Eliminar Tienda</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
@@ -2557,7 +2248,7 @@
         <v>41</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="31"/>
       <c r="R5" s="22"/>
@@ -2566,7 +2257,7 @@
     </row>
     <row r="6" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>38</v>
@@ -2601,52 +2292,30 @@
         <v>42</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="22"/>
       <c r="S6" s="27"/>
       <c r="T6" s="30"/>
     </row>
-    <row r="7" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>40</v>
-      </c>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="31"/>
       <c r="R7" s="22"/>
       <c r="S7" s="27"/>
@@ -2654,7 +2323,7 @@
     </row>
     <row r="8" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>38</v>
@@ -2689,7 +2358,7 @@
         <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="31"/>
       <c r="R8" s="22"/>
@@ -2698,7 +2367,7 @@
     </row>
     <row r="9" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>38</v>
@@ -2733,7 +2402,7 @@
         <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="31"/>
       <c r="R9" s="22"/>
@@ -2742,7 +2411,7 @@
     </row>
     <row r="10" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>38</v>
@@ -2777,7 +2446,7 @@
         <v>42</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="Q10" s="31"/>
       <c r="R10" s="22"/>
@@ -2786,7 +2455,7 @@
     </row>
     <row r="11" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -2821,7 +2490,7 @@
         <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="31"/>
       <c r="R11" s="22"/>
@@ -2829,11 +2498,11 @@
       <c r="T11" s="30"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
@@ -2848,55 +2517,55 @@
     </row>
     <row r="15" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="C15" s="37" t="str">
         <f>_xlfn.CONCAT(A6)</f>
-        <v>Nombre Tienda</v>
+        <v>Nombre Sede</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87" t="s">
+      <c r="B17" s="90"/>
+      <c r="C17" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87" t="s">
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87" t="s">
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87" t="s">
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="89" t="s">
+      <c r="P17" s="90"/>
+      <c r="Q17" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="89"/>
+      <c r="R17" s="66"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="88"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
       <c r="G18" s="19" t="s">
         <v>28</v>
       </c>
@@ -2909,12 +2578,12 @@
       <c r="J18" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="89" t="s">
+      <c r="K18" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
       <c r="O18" s="19" t="s">
         <v>30</v>
       </c>
@@ -2929,219 +2598,168 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="176" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="101" t="s">
-        <v>130</v>
-      </c>
-      <c r="H19" s="103" t="str">
-        <f>'[1]Listado Objetos de Dominio'!A2</f>
-        <v>Tienda</v>
-      </c>
-      <c r="I19" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="J19" s="103"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="P19" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q19" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="R19" s="20" t="s">
-        <v>154</v>
+      <c r="A19" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="68"/>
+      <c r="C19" s="133" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="145" t="str">
+        <f>'Listado Objetos de Dominio'!A2</f>
+        <v>Sede</v>
+      </c>
+      <c r="I19" s="144" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19" s="145"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="144"/>
+      <c r="O19" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" s="132" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q19" s="132" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" s="132" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="93"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="182" t="s">
-        <v>155</v>
-      </c>
-      <c r="P20" s="182" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q20" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="R20" s="20" t="s">
-        <v>154</v>
-      </c>
+      <c r="A20" s="136"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="144"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="132"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="183" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="150"/>
-      <c r="C21" s="184" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="153" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="137" t="str">
-        <f>'[1]Listado Objetos de Dominio'!A2</f>
-        <v>Tienda</v>
-      </c>
-      <c r="I21" s="155" t="s">
-        <v>160</v>
-      </c>
-      <c r="J21" s="153"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="140"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="P21" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q21" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="R21" s="22" t="s">
-        <v>163</v>
-      </c>
+      <c r="A21" s="112"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="129"/>
+      <c r="R21" s="124"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="187"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="188"/>
-      <c r="D22" s="189"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="144"/>
-      <c r="O22" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="P22" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q22" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="R22" s="22" t="s">
-        <v>163</v>
-      </c>
+      <c r="A22" s="112"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="129"/>
+      <c r="Q22" s="129"/>
+      <c r="R22" s="124"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="191" t="s">
-        <v>165</v>
-      </c>
-      <c r="B23" s="192"/>
-      <c r="C23" s="193" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="H23" s="78" t="str">
-        <f>'[1]Listado Objetos de Dominio'!A2</f>
-        <v>Tienda</v>
-      </c>
-      <c r="I23" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="113"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="114"/>
       <c r="L23" s="114"/>
       <c r="M23" s="114"/>
-      <c r="N23" s="115"/>
-      <c r="O23" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="P23" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q23" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="R23" s="27" t="s">
-        <v>168</v>
-      </c>
+      <c r="N23" s="114"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="129"/>
+      <c r="R23" s="124"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="196" t="s">
-        <v>169</v>
-      </c>
-      <c r="B24" s="196"/>
-      <c r="C24" s="131" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="197" t="str">
-        <f>'[1]Listado Objetos de Dominio'!A2</f>
-        <v>Tienda</v>
-      </c>
-      <c r="I24" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="P24" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q24" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="R24" s="30" t="s">
-        <v>173</v>
-      </c>
+      <c r="A24" s="138"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="124"/>
+      <c r="Q24" s="124"/>
+      <c r="R24" s="124"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="35">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:F18"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="C19:F20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
     <mergeCell ref="K21:N22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:F23"/>
@@ -3155,23 +2773,6 @@
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="J21:J22"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:N20"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:F18"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O17:P17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{A0A9F0FE-D8D1-41AF-88E0-E8AFB9F66103}"/>
@@ -3188,10 +2789,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA711548-EF1C-4E7D-A644-159BE08F3904}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3204,7 +2805,7 @@
     <col min="7" max="7" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="79.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -3220,70 +2821,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="81" t="str">
+      <c r="B2" s="84" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v xml:space="preserve">Pedido </v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="82" t="str">
+      <c r="B3" s="85" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v xml:space="preserve">Objeto de dominio que representa una orden de compra realizada por un cliente </v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -3336,19 +2937,19 @@
       </c>
       <c r="Q4" s="34" t="str">
         <f>A19</f>
-        <v>Crear pedido</v>
+        <v>Consultar Pedido</v>
       </c>
       <c r="R4" s="32">
         <f>A20</f>
         <v>0</v>
       </c>
-      <c r="S4" s="33" t="str">
+      <c r="S4" s="33">
         <f>A21</f>
-        <v>Consultar pedido</v>
-      </c>
-      <c r="T4" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
         <f>A22</f>
-        <v>modificar  pedido</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
@@ -3386,29 +2987,22 @@
         <v>41</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="31"/>
       <c r="R5" s="22"/>
       <c r="S5" s="27"/>
       <c r="T5" s="30"/>
     </row>
-    <row r="6" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
       <c r="K6" s="12"/>
@@ -3416,9 +3010,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="P6" s="7"/>
       <c r="Q6" s="31"/>
       <c r="R6" s="22"/>
       <c r="S6" s="27"/>
@@ -3426,7 +3018,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>48</v>
@@ -3457,16 +3049,15 @@
         <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="38" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="A8" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="148" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3484,14 +3075,14 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="5"/>
@@ -3522,14 +3113,14 @@
         <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="5"/>
@@ -3560,46 +3151,46 @@
         <v>42</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
+      <c r="A11" s="38"/>
       <c r="B11"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="40"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="39"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="157" t="s">
+      <c r="A12" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="158"/>
-      <c r="C12" s="159"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="40"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="39"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
@@ -3613,69 +3204,66 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="160" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="161" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="48" t="str">
-        <f>A6</f>
-        <v>Promoción</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="160"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="37" t="str">
+      <c r="A14" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="108" t="str">
         <f>A7</f>
         <v>Fecha pedido</v>
       </c>
     </row>
+    <row r="15" spans="1:20" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="93"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="109"/>
+    </row>
     <row r="16" spans="1:20" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89" t="s">
+      <c r="B17" s="66"/>
+      <c r="C17" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="87" t="s">
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87" t="s">
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87" t="s">
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87" t="s">
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="90"/>
+      <c r="R17" s="92"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
       <c r="G18" s="19" t="s">
         <v>28</v>
       </c>
@@ -3688,12 +3276,12 @@
       <c r="J18" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="89" t="s">
+      <c r="K18" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
       <c r="O18" s="19" t="s">
         <v>30</v>
       </c>
@@ -3707,248 +3295,197 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="149" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="150"/>
-      <c r="C19" s="139" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="153" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="137" t="str">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="101"/>
+      <c r="C19" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="101" t="str">
         <f>B2</f>
         <v xml:space="preserve">Pedido </v>
       </c>
-      <c r="I19" s="155" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="137"/>
-      <c r="K19" s="139"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="P19" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q19" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="R19" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="151"/>
-      <c r="B20" s="152"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="144"/>
-      <c r="O20" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="P20" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q20" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="R20" s="26" t="s">
-        <v>105</v>
-      </c>
+      <c r="I19" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="101"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="130" t="s">
+        <v>116</v>
+      </c>
+      <c r="P19" s="131" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q19" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="R19" s="110" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="131"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="146" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="147"/>
-      <c r="C21" s="148" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="63" t="str">
-        <f>B2</f>
-        <v xml:space="preserve">Pedido </v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" s="57"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="145"/>
-      <c r="O21" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="P21" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q21" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="R21" s="61" t="s">
-        <v>106</v>
-      </c>
+      <c r="A21" s="115"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="129"/>
+      <c r="R21" s="124"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="134" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="113" t="s">
-        <v>86</v>
-      </c>
+      <c r="A22" s="112"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="114"/>
       <c r="D22" s="114"/>
       <c r="E22" s="114"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="122" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="125" t="str">
-        <f>B2</f>
-        <v xml:space="preserve">Pedido </v>
-      </c>
-      <c r="I22" s="128" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="122"/>
-      <c r="K22" s="113"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="114"/>
       <c r="L22" s="114"/>
       <c r="M22" s="114"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="P22" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q22" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="R22" s="29" t="s">
-        <v>107</v>
-      </c>
+      <c r="N22" s="114"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="124"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="135"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="P23" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q23" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="R23" s="29" t="s">
-        <v>107</v>
-      </c>
+      <c r="A23" s="112"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="129"/>
+      <c r="R23" s="124"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="136"/>
+      <c r="A24" s="112"/>
       <c r="B24" s="112"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="P24" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q24" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="R24" s="29" t="s">
-        <v>107</v>
-      </c>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="114"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="129"/>
+      <c r="R24" s="124"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="133" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" s="68" t="str">
-        <f>B2</f>
-        <v xml:space="preserve">Pedido </v>
-      </c>
-      <c r="I25" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25" s="67"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="133"/>
-      <c r="M25" s="133"/>
-      <c r="N25" s="133"/>
-      <c r="O25" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="P25" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q25" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="R25" s="73" t="s">
-        <v>108</v>
-      </c>
+      <c r="A25" s="118"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="114"/>
+      <c r="N25" s="114"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="123"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="117"/>
+      <c r="C26" s="116"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="38">
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:F18"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:N20"/>
     <mergeCell ref="J22:J24"/>
     <mergeCell ref="K22:N24"/>
     <mergeCell ref="A25:B25"/>
@@ -3959,29 +3496,6 @@
     <mergeCell ref="G22:G24"/>
     <mergeCell ref="H22:H24"/>
     <mergeCell ref="I22:I24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:N20"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:F18"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{E4D0700B-8B1E-4B4A-A731-FE6F259C3CF4}"/>
@@ -3990,16 +3504,8 @@
     <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{BD87D28E-2AC3-4C02-ACF8-A3A5E47C7830}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{239DC9BF-9699-452E-BDDF-C83F4396B2DE}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{AF79C95C-5699-4885-8D71-9F1A74ABE7D0}"/>
-    <hyperlink ref="B6" location="Promoción!B2" display="Promoción!B2" xr:uid="{DC5A4A1D-5E3D-4A92-9BDE-01CC71B811EE}"/>
-    <hyperlink ref="C15" location="Pedido!A7" display="Pedido!A7" xr:uid="{42283D18-8C6C-489D-8C89-0CF911DAEB08}"/>
-    <hyperlink ref="C14" location="Pedido!A6" display="Pedido!A6" xr:uid="{C9DBBC6B-FA3F-4A90-95A1-D0EEBE5EB7A4}"/>
-    <hyperlink ref="B8" location="'Tipo de pago'!B2" display="'Tipo de pago'!B2" xr:uid="{BE5F1E6F-2965-46A2-8797-8E52B593C504}"/>
-    <hyperlink ref="H25" location="Producto!B2" display="Producto!B2" xr:uid="{C8C248C9-9C46-47CB-91F1-E160DF04CAFE}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{1A51D0A9-F247-48FC-8252-513F9E7C02A4}"/>
-    <hyperlink ref="H22:H24" location="Pedido!B2" display="Pedido!B2" xr:uid="{56BCE6FF-D30F-4F67-905D-522E2B5F1001}"/>
-    <hyperlink ref="H21" location="Pedido!B2" display="Pedido!B2" xr:uid="{65F59D17-994B-43FE-9D0C-C680395B3188}"/>
     <hyperlink ref="H19:H20" location="Pedido!B2" display="Pedido!B2" xr:uid="{F9C3047D-852F-485F-8E7B-4ADE1B8747BF}"/>
-    <hyperlink ref="H25" location="Pedido!B2" display="Pedido!B2" xr:uid="{1E2FB090-7729-4B1D-B19C-251FAAEAC840}"/>
+    <hyperlink ref="C14" location="Pedido!A7" display="Pedido!A7" xr:uid="{42283D18-8C6C-489D-8C89-0CF911DAEB08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4010,8 +3516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5620F3-F32A-4F53-B476-5182BEBA6CC3}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P2"/>
+    <sheetView topLeftCell="B3" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4041,70 +3547,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="81" t="str">
+      <c r="B2" s="84" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Pago</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="82" t="str">
+      <c r="B3" s="85" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v xml:space="preserve">Objeto de dominio que representa el pago realizado por un cliente </v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -4207,7 +3713,7 @@
         <v>41</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="31"/>
       <c r="R5" s="22"/>
@@ -4218,7 +3724,7 @@
       <c r="A6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="38" t="str">
+      <c r="B6" s="147" t="str">
         <f>Pedido!B2</f>
         <v xml:space="preserve">Pedido </v>
       </c>
@@ -4248,7 +3754,7 @@
         <v>42</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="22"/>
@@ -4257,7 +3763,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>48</v>
@@ -4288,7 +3794,7 @@
         <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -4306,7 +3812,7 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
@@ -4326,46 +3832,46 @@
         <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
+      <c r="A9" s="38"/>
       <c r="B9"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="40"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="39"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="157" t="s">
+      <c r="A10" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="158"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="40"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="39"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
@@ -4379,69 +3885,69 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="163" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="161" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="48" t="str">
+      <c r="A12" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="47" t="str">
         <f>A6</f>
         <v>Pedido</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="164"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="49" t="str">
+      <c r="A13" s="107"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="146" t="str">
         <f>A7</f>
         <v>Fecha de pago</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89" t="s">
+      <c r="B15" s="66"/>
+      <c r="C15" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="87" t="s">
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87" t="s">
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87" t="s">
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87" t="s">
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="90"/>
+      <c r="R15" s="92"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="89"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="19" t="s">
         <v>28</v>
       </c>
@@ -4454,12 +3960,12 @@
       <c r="J16" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="89" t="s">
+      <c r="K16" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
       <c r="O16" s="19" t="s">
         <v>30</v>
       </c>
@@ -4474,223 +3980,208 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="101" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="103" t="str">
+      <c r="A17" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="68"/>
+      <c r="C17" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="73" t="str">
         <f>B2</f>
         <v>Pago</v>
       </c>
-      <c r="I17" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="103"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="P17" s="72" t="s">
-        <v>120</v>
+      <c r="I17" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="73"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="56" t="s">
+        <v>87</v>
       </c>
       <c r="Q17" s="20" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="R17" s="25" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="93"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="P18" s="72" t="s">
-        <v>75</v>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="56" t="s">
+        <v>71</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R18" s="25" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="167" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
+      <c r="A19" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="101"/>
+      <c r="C19" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
       <c r="G19" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="71" t="str">
+        <v>82</v>
+      </c>
+      <c r="H19" s="55" t="str">
         <f>B2</f>
         <v>Pago</v>
       </c>
-      <c r="I19" s="65" t="s">
-        <v>117</v>
+      <c r="I19" s="53" t="s">
+        <v>84</v>
       </c>
       <c r="J19" s="35"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
       <c r="O19" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="P19" s="75" t="s">
-        <v>77</v>
+        <v>89</v>
+      </c>
+      <c r="P19" s="57" t="s">
+        <v>73</v>
       </c>
       <c r="Q19" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R19" s="26" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="168" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="168"/>
-      <c r="C20" s="166" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="165" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="168" t="str">
+      <c r="A20" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="104"/>
+      <c r="C20" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="104" t="str">
         <f>B2</f>
         <v>Pago</v>
       </c>
-      <c r="I20" s="166" t="s">
-        <v>118</v>
-      </c>
-      <c r="J20" s="165"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="166"/>
+      <c r="I20" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="105"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
       <c r="O20" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="76" t="s">
-        <v>120</v>
+        <v>86</v>
+      </c>
+      <c r="P20" s="58" t="s">
+        <v>87</v>
       </c>
       <c r="Q20" s="27" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="R20" s="29" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="168"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="166"/>
-      <c r="N21" s="166"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
       <c r="O21" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="P21" s="76" t="s">
-        <v>75</v>
+        <v>88</v>
+      </c>
+      <c r="P21" s="58" t="s">
+        <v>71</v>
       </c>
       <c r="Q21" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R21" s="29" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="168"/>
-      <c r="B22" s="168"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="166"/>
-      <c r="L22" s="166"/>
-      <c r="M22" s="166"/>
-      <c r="N22" s="166"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
       <c r="O22" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="P22" s="76" t="s">
-        <v>124</v>
+        <v>90</v>
+      </c>
+      <c r="P22" s="58" t="s">
+        <v>91</v>
       </c>
       <c r="Q22" s="28" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="R22" s="29" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K20:N22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:B22"/>
-    <mergeCell ref="C20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="C17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J17:J18"/>
     <mergeCell ref="K17:N18"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="K16:N16"/>
@@ -4706,21 +4197,36 @@
     <mergeCell ref="J15:N15"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K20:N22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A20:B22"/>
+    <mergeCell ref="C20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{19304FE8-C8A9-459C-B744-480B81492468}"/>
     <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{6657FFBA-FBE3-4FE0-BAC4-F86239EB03C0}"/>
     <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{BE00E1ED-F3BB-4FDC-8A53-3D19EEE7B46B}"/>
     <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{80C64695-3651-43CF-B4D5-9E1BAED24711}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{DBA2814D-A99E-4848-87FE-8DD55357009F}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{CD32317B-2BE2-4D07-BDFB-79B8E50C026E}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{0A5C6A45-EE00-4956-BEAC-2AA2821AD666}"/>
     <hyperlink ref="C12" location="Pago!A6" display="Pago!A6" xr:uid="{F511FD4E-D9FE-4FA1-B262-64F9B2E05AB8}"/>
     <hyperlink ref="C13" location="Pago!A7" display="Pago!A7" xr:uid="{9713FEB2-9D3F-424D-B8B9-6C6415E5449A}"/>
     <hyperlink ref="B6" location="Pedido!B2" display="Pedido!B2" xr:uid="{ADA62601-3E36-4758-8B09-BEC17E0715B7}"/>
     <hyperlink ref="H17:H18" location="Pago!B2" display="Pago!B2" xr:uid="{029708A2-CABA-43A7-8449-EF78C170E9CA}"/>
+    <hyperlink ref="H20:H22" location="Pago!B2" display="Pago!B2" xr:uid="{B320BED2-45BB-4729-9FA5-1F0DD5981194}"/>
     <hyperlink ref="H19" location="Pago!B2" display="Pago!B2" xr:uid="{CCB9F20B-304A-491A-80EF-43898B11380D}"/>
-    <hyperlink ref="H20:H22" location="Pago!B2" display="Pago!B2" xr:uid="{B320BED2-45BB-4729-9FA5-1F0DD5981194}"/>
+    <hyperlink ref="A19:B19" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{DBA2814D-A99E-4848-87FE-8DD55357009F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4728,6 +4234,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -4871,12 +4383,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4887,6 +4393,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4904,17 +4421,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
